--- a/TestCases/Excel_openpyxl.xlsx
+++ b/TestCases/Excel_openpyxl.xlsx
@@ -1,40 +1,131 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\james\RobotAutomation\TestCases\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D28415BB-2203-4EE8-8140-37B42162F36C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="10">
+  <si>
+    <t>Body Data</t>
+  </si>
+  <si>
+    <t>Response</t>
+  </si>
+  <si>
+    <t>{
+ "processDefinitionKey":"modelTeamSeq1",
+ "initiator":"admin"
+}</t>
+  </si>
+  <si>
+    <t>{
+    "processInstanceId": "57",
+    "processInstanceName": null,
+    "processDefinitionId": "modelTeamSeq:1:8",
+    "processDefinitionKey": "modelTeamSeq",
+    "activeActivity": [
+        "sid-9FFEE622-CE0E-470D-89F4-45F897CB679A"
+    ],
+    "initiator": "admin",
+    "processVariables": {
+        "initiator": "admin",
+        "processDefinitionKey": "modelTeamSeq"
+    }
+}</t>
+  </si>
+  <si>
+    <t>Sorapong Lekyan</t>
+  </si>
+  <si>
+    <t>{
+ "initiator":"admin",
+ "processDefinitionKey":"modelTeamSeq2"
+}</t>
+  </si>
+  <si>
+    <t>{ 
+    "startTime": "2019-04-30 07:54:16",
+    "processDefinitionId": "modelTeamSeq:1:8",
+    "processDefinitionKey": "modelTeamSeq",
+    "endTime": null,
+    "activeActivity": [
+        "sid-9FFEE622-CE0E-470D-89F4-45F897CB679A"
+    ],
+    "initiator": "admin",
+    "processVariables": {
+        "initiator": "admin",
+        "processDefinitionKey": "modelTeamSeq"
+    }
+}</t>
+  </si>
+  <si>
+    <t>{
+ "processDefinitionKey":"modelTeamSeq101",
+ "initiator":"admin"
+}</t>
+  </si>
+  <si>
+    <t>{
+    "processInstanceId": "99",
+    "processInstanceName": null,
+    "processDefinitionId": "modelTeamSeq:1:8",
+    "processDefinitionKey": "modelTeamSeq",
+    "activeActivity": [
+        "sid-9FFEE622-CE0E-470D-89F4-45F897CB679A"
+    ],
+    "initiator": "admin",
+    "processVariables": {
+        "initiator": "admin",
+        "processDefinitionKey": "modelTeamSeq"
+    }
+}</t>
+  </si>
+  <si>
+    <t>{
+ "initiator":"admin",
+ "processDefinitionKey":"modelTeamSeq202"
+}</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="1"/>
-      <color rgb="FF000000"/>
-      <sz val="12"/>
     </font>
     <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="1"/>
-      <b val="1"/>
-      <color rgb="FF000000"/>
-      <sz val="9"/>
     </font>
   </fonts>
   <fills count="6">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -92,28 +183,37 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="7">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -379,196 +479,98 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col width="56.375" customWidth="1" min="1" max="1"/>
-    <col width="50.875" customWidth="1" min="2" max="2"/>
-    <col width="18.25" customWidth="1" min="3" max="3"/>
+    <col min="1" max="1" width="56.375" customWidth="1"/>
+    <col min="2" max="2" width="50.875" customWidth="1"/>
+    <col min="3" max="3" width="18.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Body Data</t>
-        </is>
-      </c>
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>Response</t>
-        </is>
-      </c>
-    </row>
-    <row r="2" ht="220.5" customHeight="1">
-      <c r="A2" s="5" t="inlineStr">
-        <is>
-          <t>{
- "processDefinitionKey":"modelTeamSeq1",
- "initiator":"admin"
-}</t>
-        </is>
-      </c>
-      <c r="B2" s="3" t="inlineStr">
-        <is>
-          <t>{
-    "processInstanceId": "57",
-    "processInstanceName": null,
-    "processDefinitionId": "modelTeamSeq:1:8",
-    "processDefinitionKey": "modelTeamSeq",
-    "activeActivity": [
-        "sid-9FFEE622-CE0E-470D-89F4-45F897CB679A"
-    ],
-    "initiator": "admin",
-    "processVariables": {
-        "initiator": "admin",
-        "processDefinitionKey": "modelTeamSeq"
-    }
-}</t>
-        </is>
-      </c>
-      <c r="C2" s="6" t="inlineStr">
-        <is>
-          <t>Sorapong Lekyan</t>
-        </is>
-      </c>
-    </row>
-    <row r="3" ht="220.5" customHeight="1">
-      <c r="A3" s="3" t="inlineStr">
-        <is>
-          <t>{
- "initiator":"admin",
- "processDefinitionKey":"modelTeamSeq2"
-}</t>
-        </is>
-      </c>
-      <c r="B3" s="3" t="inlineStr">
-        <is>
-          <t>{ 
-    "startTime": "2019-04-30 07:54:16",
-    "processDefinitionId": "modelTeamSeq:1:8",
-    "processDefinitionKey": "modelTeamSeq",
-    "endTime": null,
-    "activeActivity": [
-        "sid-9FFEE622-CE0E-470D-89F4-45F897CB679A"
-    ],
-    "initiator": "admin",
-    "processVariables": {
-        "initiator": "admin",
-        "processDefinitionKey": "modelTeamSeq"
-    }
-}</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="3" t="n"/>
-      <c r="B4" s="4" t="n"/>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="220.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="220.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="3"/>
+      <c r="B4" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col width="56.875" customWidth="1" min="1" max="1"/>
-    <col width="50.875" customWidth="1" min="2" max="2"/>
+    <col min="1" max="1" width="56.875" customWidth="1"/>
+    <col min="2" max="2" width="50.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Body Data</t>
-        </is>
-      </c>
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>Response</t>
-        </is>
-      </c>
-    </row>
-    <row r="2" ht="220.5" customHeight="1">
-      <c r="A2" s="3" t="inlineStr">
-        <is>
-          <t>{
- "processDefinitionKey":"modelTeamSeq101",
- "initiator":"admin"
-}</t>
-        </is>
-      </c>
-      <c r="B2" s="5" t="inlineStr">
-        <is>
-          <t>{
-    "processInstanceId": "99",
-    "processInstanceName": null,
-    "processDefinitionId": "modelTeamSeq:1:8",
-    "processDefinitionKey": "modelTeamSeq",
-    "activeActivity": [
-        "sid-9FFEE622-CE0E-470D-89F4-45F897CB679A"
-    ],
-    "initiator": "admin",
-    "processVariables": {
-        "initiator": "admin",
-        "processDefinitionKey": "modelTeamSeq"
-    }
-}</t>
-        </is>
-      </c>
-    </row>
-    <row r="3" ht="220.5" customHeight="1">
-      <c r="A3" s="3" t="inlineStr">
-        <is>
-          <t>{
- "initiator":"admin",
- "processDefinitionKey":"modelTeamSeq202"
-}</t>
-        </is>
-      </c>
-      <c r="B3" s="3" t="inlineStr">
-        <is>
-          <t>{ 
-    "startTime": "2019-04-30 07:54:16",
-    "processDefinitionId": "modelTeamSeq:1:8",
-    "processDefinitionKey": "modelTeamSeq",
-    "endTime": null,
-    "activeActivity": [
-        "sid-9FFEE622-CE0E-470D-89F4-45F897CB679A"
-    ],
-    "initiator": "admin",
-    "processVariables": {
-        "initiator": "admin",
-        "processDefinitionKey": "modelTeamSeq"
-    }
-}</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="3" t="n"/>
-      <c r="B4" s="4" t="n"/>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="220.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="220.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="3"/>
+      <c r="B4" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
